--- a/工作流/Prl_流程说明.xlsx
+++ b/工作流/Prl_流程说明.xlsx
@@ -9,17 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12360" yWindow="0" windowWidth="18150" windowHeight="12390"/>
+    <workbookView xWindow="15870" yWindow="0" windowWidth="18150" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="10" r:id="rId1"/>
+    <sheet name="新增字段" sheetId="11" r:id="rId2"/>
+    <sheet name="修改字段" sheetId="12" r:id="rId3"/>
+    <sheet name="删除字段" sheetId="13" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="66">
   <si>
     <t>步骤</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,13 +178,109 @@
   <si>
     <t>出纳付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WF_prlGG_ISF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atype2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(32)</t>
+  </si>
+  <si>
+    <t>Atype3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinArea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>MaxArea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collection</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(64)</t>
+  </si>
+  <si>
+    <t>PowerFee1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerFee2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaterFee1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaterFee2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WF_prlGG_ISF_dtl</t>
+  </si>
+  <si>
+    <t>GTO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProGTO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProGTOrent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerType</t>
+  </si>
+  <si>
+    <t>PowerFee1</t>
+  </si>
+  <si>
+    <t>PowerFee2</t>
+  </si>
+  <si>
+    <t>WaterType</t>
+  </si>
+  <si>
+    <t>WaterFee1</t>
+  </si>
+  <si>
+    <t>WaterFee2</t>
+  </si>
+  <si>
+    <t>FitoutM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fitoutD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FitoutDate1</t>
+  </si>
+  <si>
+    <t>FitoutDate2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -195,8 +294,31 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,6 +349,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -252,12 +380,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -282,9 +416,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -628,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1005,9 +1147,488 @@
         <v>36</v>
       </c>
     </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="str">
+        <f>CONCATENATE("alter table ",A1," add ",B1," ",C1,";")</f>
+        <v>alter table WF_prlGG_ISF add Atype2 varchar2(32);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D10" si="0">CONCATENATE("alter table ",A2," add ",B2," ",C2,";")</f>
+        <v>alter table WF_prlGG_ISF add Atype3 varchar2(32);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>alter table WF_prlGG_ISF add MinArea NUMBER;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>alter table WF_prlGG_ISF add MaxArea NUMBER;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>alter table WF_prlGG_ISF add Collection varchar2(64);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>alter table WF_prlGG_ISF add PowerType varchar2(32);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>alter table WF_prlGG_ISF add PowerFee1 NUMBER;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="str">
+        <f>CONCATENATE("alter table ",A8," add ",B8," ",C8,";")</f>
+        <v>alter table WF_prlGG_ISF add PowerFee2 NUMBER;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>alter table WF_prlGG_ISF add WaterType varchar2(32);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>alter table WF_prlGG_ISF add WaterFee1 NUMBER;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" ref="D11:D14" si="1">CONCATENATE("alter table ",A11," add ",B11," ",C11,";")</f>
+        <v>alter table WF_prlGG_ISF add WaterFee2 NUMBER;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>alter table WF_prlGG_ISF_dtl add GTO NUMBER;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>alter table WF_prlGG_ISF_dtl add ProGTO NUMBER;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>alter table WF_prlGG_ISF_dtl add ProGTOrent NUMBER;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B16" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="str">
+        <f>CONCATENATE("alter table ",A1," drop column ",B1,";")</f>
+        <v>alter table WF_prlGG_ISF drop column Atype2;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C12" si="0">CONCATENATE("alter table ",A2," drop column ",B2,";")</f>
+        <v>alter table WF_prlGG_ISF drop column Atype3;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>alter table WF_prlGG_ISF drop column MinArea;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>alter table WF_prlGG_ISF drop column MaxArea;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>alter table WF_prlGG_ISF drop column Collection;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>alter table WF_prlGG_ISF drop column PowerFee1;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>alter table WF_prlGG_ISF drop column PowerFee2;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>alter table WF_prlGG_ISF drop column WaterFee1;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>alter table WF_prlGG_ISF drop column WaterFee2;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>alter table WF_prlGG_ISF_dtl drop column GTO;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>alter table WF_prlGG_ISF_dtl drop column ProGTO;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>alter table WF_prlGG_ISF_dtl drop column ProGTOrent;</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>